--- a/testcase/1Baidu-TestCase - 副本.xlsx
+++ b/testcase/1Baidu-TestCase - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="48" windowWidth="23256" windowHeight="12276"/>
+    <workbookView xWindow="276" yWindow="108" windowWidth="23256" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="baidu" sheetId="9" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索：&lt;keywords&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BAIDU_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,6 +463,10 @@
   </si>
   <si>
     <t>SNIPPET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索：&lt;keywords&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,7 +940,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -963,52 +963,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -1019,20 +1019,20 @@
         <v>3</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="9">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -1056,13 +1056,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1085,14 +1085,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1113,11 +1113,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="3"/>
@@ -1137,14 +1137,14 @@
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1154,33 +1154,33 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="5" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1199,11 +1199,11 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="3"/>
@@ -1223,14 +1223,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1249,11 +1249,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="3"/>
@@ -1277,10 +1277,10 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1293,26 +1293,26 @@
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1331,18 +1331,18 @@
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="4"/>
@@ -1359,14 +1359,14 @@
         <v>3</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1379,33 +1379,33 @@
     </row>
     <row r="15" spans="1:16" s="5" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -1419,11 +1419,11 @@
         <v>2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="3"/>
@@ -1440,14 +1440,14 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="3"/>
@@ -1464,14 +1464,14 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="3"/>
@@ -1488,14 +1488,14 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="3"/>
@@ -1509,33 +1509,33 @@
     </row>
     <row r="20" spans="1:16" s="5" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1549,18 +1549,18 @@
         <v>2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="4"/>
@@ -1577,14 +1577,14 @@
         <v>3</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1603,18 +1603,18 @@
         <v>4</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="4"/>
@@ -1631,14 +1631,14 @@
         <v>5</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1651,26 +1651,26 @@
     </row>
     <row r="25" spans="1:16" s="5" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="G25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1683,35 +1683,35 @@
     </row>
     <row r="26" spans="1:16" s="5" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>1</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -1725,14 +1725,14 @@
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1745,33 +1745,33 @@
     </row>
     <row r="28" spans="1:16" s="5" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -1785,18 +1785,18 @@
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="4"/>
@@ -1804,7 +1804,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="5" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
@@ -1815,16 +1815,16 @@
         <v>3</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1834,7 +1834,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="5" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
@@ -1845,15 +1845,15 @@
         <v>4</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
